--- a/4 курс/7 семестр/ТОПК 2/Выполнение.xlsx
+++ b/4 курс/7 семестр/ТОПК 2/Выполнение.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\ТОПК_ИД\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="84">
   <si>
     <t>F</t>
   </si>
@@ -339,16 +340,76 @@
   <si>
     <t>32, 54</t>
   </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>12
+..
+21</t>
+  </si>
+  <si>
+    <t>12
+..
+21
+..
+31</t>
+  </si>
+  <si>
+    <t>33
+..
+42</t>
+  </si>
+  <si>
+    <t>43
+..
+51</t>
+  </si>
+  <si>
+    <t>1,
+11
+..
+19</t>
+  </si>
+  <si>
+    <t>1,
+11
+..
+19
+..
+29</t>
+  </si>
+  <si>
+    <t>31
+..
+40</t>
+  </si>
+  <si>
+    <t>19, 23</t>
+  </si>
+  <si>
+    <t>23, 29</t>
+  </si>
+  <si>
+    <t>Служебное слово FUNC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -461,6 +522,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -500,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -693,28 +769,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -723,87 +834,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -814,28 +925,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -868,16 +979,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -889,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,25 +1009,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,15 +1036,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1151,39 +1407,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A39" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BM54" sqref="BM54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="24" width="2.77734375" customWidth="1"/>
-    <col min="25" max="25" width="3.5546875" customWidth="1"/>
-    <col min="26" max="26" width="3.77734375" customWidth="1"/>
-    <col min="27" max="27" width="2.77734375" customWidth="1"/>
-    <col min="28" max="28" width="3.88671875" customWidth="1"/>
-    <col min="29" max="29" width="2.77734375" customWidth="1"/>
+    <col min="2" max="24" width="2.81640625" customWidth="1"/>
+    <col min="25" max="25" width="3.54296875" customWidth="1"/>
+    <col min="26" max="26" width="3.7265625" customWidth="1"/>
+    <col min="27" max="27" width="2.81640625" customWidth="1"/>
+    <col min="28" max="28" width="3.90625" customWidth="1"/>
+    <col min="29" max="29" width="2.81640625" customWidth="1"/>
     <col min="30" max="30" width="4" customWidth="1"/>
-    <col min="31" max="31" width="2.77734375" customWidth="1"/>
-    <col min="32" max="32" width="3.77734375" customWidth="1"/>
-    <col min="33" max="33" width="2.77734375" customWidth="1"/>
-    <col min="34" max="34" width="3.5546875" customWidth="1"/>
-    <col min="35" max="35" width="2.77734375" customWidth="1"/>
-    <col min="36" max="36" width="3.44140625" customWidth="1"/>
-    <col min="37" max="37" width="2.77734375" customWidth="1"/>
-    <col min="38" max="38" width="3.5546875" customWidth="1"/>
-    <col min="39" max="39" width="2.77734375" customWidth="1"/>
-    <col min="40" max="40" width="3.5546875" customWidth="1"/>
-    <col min="41" max="41" width="2.77734375" customWidth="1"/>
-    <col min="42" max="42" width="3.88671875" customWidth="1"/>
-    <col min="43" max="43" width="2.77734375" customWidth="1"/>
-    <col min="44" max="44" width="3.5546875" customWidth="1"/>
-    <col min="45" max="45" width="2.77734375" customWidth="1"/>
-    <col min="46" max="46" width="3.5546875" customWidth="1"/>
-    <col min="47" max="47" width="2.77734375" customWidth="1"/>
-    <col min="48" max="48" width="3.77734375" customWidth="1"/>
-    <col min="49" max="74" width="2.77734375" customWidth="1"/>
+    <col min="31" max="31" width="2.81640625" customWidth="1"/>
+    <col min="32" max="32" width="3.7265625" customWidth="1"/>
+    <col min="33" max="33" width="2.81640625" customWidth="1"/>
+    <col min="34" max="34" width="3.54296875" customWidth="1"/>
+    <col min="35" max="35" width="2.81640625" customWidth="1"/>
+    <col min="36" max="36" width="3.453125" customWidth="1"/>
+    <col min="37" max="37" width="2.81640625" customWidth="1"/>
+    <col min="38" max="38" width="3.54296875" customWidth="1"/>
+    <col min="39" max="39" width="2.81640625" customWidth="1"/>
+    <col min="40" max="40" width="3.54296875" customWidth="1"/>
+    <col min="41" max="41" width="2.81640625" customWidth="1"/>
+    <col min="42" max="42" width="3.90625" customWidth="1"/>
+    <col min="43" max="43" width="2.81640625" customWidth="1"/>
+    <col min="44" max="44" width="3.54296875" customWidth="1"/>
+    <col min="45" max="45" width="2.81640625" customWidth="1"/>
+    <col min="46" max="46" width="3.54296875" customWidth="1"/>
+    <col min="47" max="47" width="2.81640625" customWidth="1"/>
+    <col min="48" max="48" width="3.7265625" customWidth="1"/>
+    <col min="49" max="74" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="24.75" customHeight="1">
@@ -1272,7 +1528,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" ht="22.15" customHeight="1">
+    <row r="2" spans="1:58" ht="22.2" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1600,7 +1856,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" ht="22.15" customHeight="1">
+    <row r="7" spans="1:58" ht="22.2" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="5"/>
       <c r="C7" s="20"/>
@@ -2254,7 +2510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:58" s="23" customFormat="1" ht="97.9" customHeight="1">
+    <row r="14" spans="1:58" s="23" customFormat="1" ht="97.8" customHeight="1">
       <c r="C14" s="23">
         <v>0</v>
       </c>
@@ -6509,7 +6765,10 @@
       <c r="BF71" s="80"/>
       <c r="BG71" s="64"/>
       <c r="BH71" s="80"/>
-      <c r="BI71" s="64"/>
+      <c r="BI71" s="64">
+        <f>U42</f>
+        <v>56</v>
+      </c>
       <c r="BJ71" s="80"/>
       <c r="BK71" s="64"/>
       <c r="BL71" s="80"/>
@@ -7683,4 +7942,5544 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BX77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="76" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55:AI64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="68" width="2.6328125" style="96" customWidth="1"/>
+    <col min="69" max="16384" width="8.7265625" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" ht="20.399999999999999">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="95"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94"/>
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94"/>
+      <c r="AU1" s="94"/>
+      <c r="AV1" s="94"/>
+      <c r="AW1" s="94"/>
+      <c r="AX1" s="94"/>
+    </row>
+    <row r="2" spans="1:50" ht="18">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="94"/>
+      <c r="AU2" s="94"/>
+      <c r="AV2" s="94"/>
+      <c r="AW2" s="94"/>
+      <c r="AX2" s="94"/>
+    </row>
+    <row r="3" spans="1:50" ht="15.6">
+      <c r="A3" s="100">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100">
+        <f>A3+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="100">
+        <f t="shared" ref="C3:M3" si="0">B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="100">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E3" s="100">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="100">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="100">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="73">
+        <f>F3+1</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="100">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J3" s="100">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K3" s="100">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L3" s="100">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M3" s="100">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
+    </row>
+    <row r="4" spans="1:50" ht="15.6">
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
+    </row>
+    <row r="5" spans="1:50" ht="15.6">
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="101"/>
+      <c r="AQ5" s="101"/>
+      <c r="AR5" s="101"/>
+      <c r="AS5" s="101"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="101"/>
+      <c r="AW5" s="101"/>
+      <c r="AX5" s="101"/>
+    </row>
+    <row r="6" spans="1:50" ht="20.399999999999999">
+      <c r="A6" s="94"/>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO6" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ6" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="103"/>
+      <c r="AX6" s="94"/>
+    </row>
+    <row r="7" spans="1:50" ht="15.6">
+      <c r="A7" s="104"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="99"/>
+    </row>
+    <row r="8" spans="1:50" ht="15.6">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="107"/>
+      <c r="D8" s="73">
+        <f>M3+1</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="107"/>
+      <c r="F8" s="100">
+        <f>D8+1</f>
+        <v>13</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="100">
+        <f>F8+1</f>
+        <v>14</v>
+      </c>
+      <c r="I8" s="107"/>
+      <c r="J8" s="100">
+        <f>H8+1</f>
+        <v>15</v>
+      </c>
+      <c r="K8" s="107"/>
+      <c r="L8" s="100">
+        <f>J8+1</f>
+        <v>16</v>
+      </c>
+      <c r="M8" s="107"/>
+      <c r="N8" s="100">
+        <f>L8+1</f>
+        <v>17</v>
+      </c>
+      <c r="O8" s="107"/>
+      <c r="P8" s="100">
+        <f>N8+1</f>
+        <v>18</v>
+      </c>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="100">
+        <f>P8+1</f>
+        <v>19</v>
+      </c>
+      <c r="S8" s="107"/>
+      <c r="T8" s="100">
+        <f>R8+1</f>
+        <v>20</v>
+      </c>
+      <c r="U8" s="100">
+        <f>T8+1</f>
+        <v>21</v>
+      </c>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="100">
+        <f>U8+1</f>
+        <v>22</v>
+      </c>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="100">
+        <f>X8+1</f>
+        <v>23</v>
+      </c>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="100">
+        <f>Z8+1</f>
+        <v>24</v>
+      </c>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="100">
+        <f>AB8+1</f>
+        <v>25</v>
+      </c>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="100">
+        <f>AD8+1</f>
+        <v>26</v>
+      </c>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="100">
+        <f>AF8+1</f>
+        <v>27</v>
+      </c>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="100">
+        <f>AH8+1</f>
+        <v>28</v>
+      </c>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="100">
+        <f>AJ8+1</f>
+        <v>29</v>
+      </c>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="100">
+        <f>AL8+1</f>
+        <v>30</v>
+      </c>
+      <c r="AO8" s="100">
+        <f>AN8+1</f>
+        <v>31</v>
+      </c>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="100">
+        <f>AO8+1</f>
+        <v>32</v>
+      </c>
+      <c r="AR8" s="100"/>
+      <c r="AW8" s="100"/>
+      <c r="AX8" s="100"/>
+    </row>
+    <row r="9" spans="1:50" ht="78">
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="108" t="str">
+        <f>$W$9</f>
+        <v>12
+..
+21
+..
+31</v>
+      </c>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="100"/>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+    </row>
+    <row r="11" spans="1:50" ht="20.399999999999999">
+      <c r="A11" s="94"/>
+      <c r="B11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO11" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP11" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ11" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR11" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="15.6">
+      <c r="A12" s="94"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="94"/>
+    </row>
+    <row r="13" spans="1:50" ht="15.6">
+      <c r="A13" s="100"/>
+      <c r="B13" s="100">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="111">
+        <f>AQ8+1</f>
+        <v>33</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="100">
+        <f>C13+1</f>
+        <v>34</v>
+      </c>
+      <c r="F13" s="107"/>
+      <c r="G13" s="100">
+        <f>E13+1</f>
+        <v>35</v>
+      </c>
+      <c r="H13" s="107"/>
+      <c r="I13" s="100">
+        <f>G13+1</f>
+        <v>36</v>
+      </c>
+      <c r="J13" s="107"/>
+      <c r="K13" s="100">
+        <f>I13+1</f>
+        <v>37</v>
+      </c>
+      <c r="L13" s="107"/>
+      <c r="M13" s="100">
+        <f>K13+1</f>
+        <v>38</v>
+      </c>
+      <c r="N13" s="107"/>
+      <c r="O13" s="100">
+        <f>M13+1</f>
+        <v>39</v>
+      </c>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="100">
+        <f>O13+1</f>
+        <v>40</v>
+      </c>
+      <c r="R13" s="107"/>
+      <c r="S13" s="100">
+        <f>Q13+1</f>
+        <v>41</v>
+      </c>
+      <c r="T13" s="107"/>
+      <c r="U13" s="100">
+        <f>S13+1</f>
+        <v>42</v>
+      </c>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="73">
+        <f>U13+1</f>
+        <v>43</v>
+      </c>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="73">
+        <f>X13+1</f>
+        <v>44</v>
+      </c>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="73">
+        <f>Z13+1</f>
+        <v>45</v>
+      </c>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="73">
+        <f>AB13+1</f>
+        <v>46</v>
+      </c>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="73">
+        <f>AD13+1</f>
+        <v>47</v>
+      </c>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="73">
+        <f>AF13+1</f>
+        <v>48</v>
+      </c>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="73">
+        <f>AH13+1</f>
+        <v>49</v>
+      </c>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="73">
+        <f>AJ13+1</f>
+        <v>50</v>
+      </c>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="73">
+        <f>AL13+1</f>
+        <v>51</v>
+      </c>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="111">
+        <f>AN13+1</f>
+        <v>52</v>
+      </c>
+      <c r="AQ13" s="100">
+        <f>AP13+1</f>
+        <v>53</v>
+      </c>
+      <c r="AR13" s="100"/>
+    </row>
+    <row r="14" spans="1:50" ht="46.8">
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="100"/>
+      <c r="J14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="100"/>
+      <c r="L14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="100"/>
+      <c r="N14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="100"/>
+      <c r="P14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="100"/>
+      <c r="T14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="100"/>
+      <c r="V14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN14" s="100"/>
+      <c r="AO14" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP14" s="100"/>
+      <c r="AQ14" s="100"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+    </row>
+    <row r="16" spans="1:50" ht="20.399999999999999">
+      <c r="A16" s="94"/>
+      <c r="B16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+    </row>
+    <row r="17" spans="1:58" ht="15.6">
+      <c r="A17" s="99"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+    </row>
+    <row r="18" spans="1:58" ht="15.6">
+      <c r="A18" s="115"/>
+      <c r="B18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="115">
+        <f>AQ13+1</f>
+        <v>54</v>
+      </c>
+      <c r="D18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="115">
+        <f>C18+1</f>
+        <v>55</v>
+      </c>
+      <c r="F18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="115">
+        <f>E18+1</f>
+        <v>56</v>
+      </c>
+      <c r="H18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="115">
+        <f>G18+1</f>
+        <v>57</v>
+      </c>
+      <c r="J18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="115">
+        <f>I18+1</f>
+        <v>58</v>
+      </c>
+      <c r="L18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="115">
+        <f>K18+1</f>
+        <v>59</v>
+      </c>
+      <c r="N18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="115">
+        <f>M18+1</f>
+        <v>60</v>
+      </c>
+      <c r="P18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="115">
+        <f>O18+1</f>
+        <v>61</v>
+      </c>
+      <c r="R18" s="115">
+        <f t="shared" ref="R18:X18" si="1">Q18+1</f>
+        <v>62</v>
+      </c>
+      <c r="S18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="115">
+        <f>R18+1</f>
+        <v>63</v>
+      </c>
+      <c r="U18" s="115">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="V18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="115">
+        <f>U18+1</f>
+        <v>65</v>
+      </c>
+      <c r="X18" s="115">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="Y18" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="115">
+        <f>X18+1</f>
+        <v>67</v>
+      </c>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="116"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="116"/>
+      <c r="AO18" s="116"/>
+      <c r="AP18" s="116"/>
+      <c r="AQ18" s="116"/>
+      <c r="AR18" s="116"/>
+      <c r="AS18" s="116"/>
+      <c r="AT18" s="116"/>
+      <c r="AU18" s="116"/>
+      <c r="AV18" s="116"/>
+      <c r="AW18" s="116"/>
+      <c r="AX18" s="116"/>
+    </row>
+    <row r="21" spans="1:58" ht="20.399999999999999">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+    </row>
+    <row r="23" spans="1:58" ht="20.399999999999999">
+      <c r="A23" s="94"/>
+      <c r="B23" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="95"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="94"/>
+      <c r="AP23" s="94"/>
+      <c r="AQ23" s="94"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="94"/>
+      <c r="AT23" s="94"/>
+      <c r="AU23" s="94"/>
+    </row>
+    <row r="24" spans="1:58" ht="18">
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="94"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="94"/>
+    </row>
+    <row r="25" spans="1:58" ht="15.6">
+      <c r="A25" s="100">
+        <v>0</v>
+      </c>
+      <c r="B25" s="100">
+        <f>A25+1</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="100">
+        <f t="shared" ref="C25" si="2">B25+1</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="100">
+        <f t="shared" ref="D25" si="3">C25+1</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="100">
+        <f t="shared" ref="E25" si="4">D25+1</f>
+        <v>4</v>
+      </c>
+      <c r="F25" s="100">
+        <f t="shared" ref="F25" si="5">E25+1</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="100">
+        <f>A25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="36">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="100">
+        <f>F25+1</f>
+        <v>6</v>
+      </c>
+      <c r="J25" s="100">
+        <f t="shared" ref="J25" si="6">I25+1</f>
+        <v>7</v>
+      </c>
+      <c r="K25" s="100">
+        <f t="shared" ref="K25" si="7">J25+1</f>
+        <v>8</v>
+      </c>
+      <c r="L25" s="100">
+        <f t="shared" ref="L25" si="8">K25+1</f>
+        <v>9</v>
+      </c>
+      <c r="M25" s="100">
+        <f t="shared" ref="M25" si="9">L25+1</f>
+        <v>10</v>
+      </c>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="100"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="100"/>
+      <c r="AK25" s="100"/>
+      <c r="AL25" s="100"/>
+      <c r="AM25" s="100"/>
+      <c r="AN25" s="100"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="100"/>
+      <c r="AQ25" s="100"/>
+      <c r="AR25" s="100"/>
+      <c r="AS25" s="100"/>
+      <c r="AT25" s="100"/>
+      <c r="AU25" s="100"/>
+    </row>
+    <row r="26" spans="1:58" ht="15.6">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="100"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="100"/>
+      <c r="AU26" s="100"/>
+    </row>
+    <row r="27" spans="1:58" ht="15.6">
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="101"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="101"/>
+      <c r="AL27" s="101"/>
+      <c r="AM27" s="101"/>
+      <c r="AN27" s="101"/>
+      <c r="AO27" s="101"/>
+      <c r="AP27" s="101"/>
+      <c r="AQ27" s="101"/>
+      <c r="AR27" s="101"/>
+      <c r="AS27" s="101"/>
+      <c r="AT27" s="101"/>
+      <c r="AU27" s="101"/>
+    </row>
+    <row r="28" spans="1:58" ht="20.399999999999999">
+      <c r="A28" s="94"/>
+      <c r="B28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="W28" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD28" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF28" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL28" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN28" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO28" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP28" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ28" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR28" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" ht="15.6">
+      <c r="A29" s="104"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="97"/>
+      <c r="AI29" s="105"/>
+      <c r="AJ29" s="97"/>
+      <c r="AK29" s="105"/>
+      <c r="AL29" s="97"/>
+      <c r="AM29" s="105"/>
+      <c r="AN29" s="97"/>
+      <c r="AO29" s="97"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="97"/>
+      <c r="AR29" s="99"/>
+    </row>
+    <row r="30" spans="1:58" ht="15.6">
+      <c r="A30" s="100"/>
+      <c r="B30" s="100">
+        <f>A25</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="107"/>
+      <c r="D30" s="36">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="107"/>
+      <c r="F30" s="100">
+        <f>M25+1</f>
+        <v>11</v>
+      </c>
+      <c r="G30" s="107"/>
+      <c r="H30" s="100">
+        <f>F30+1</f>
+        <v>12</v>
+      </c>
+      <c r="I30" s="107"/>
+      <c r="J30" s="100">
+        <f>H30+1</f>
+        <v>13</v>
+      </c>
+      <c r="K30" s="107"/>
+      <c r="L30" s="100">
+        <f>J30+1</f>
+        <v>14</v>
+      </c>
+      <c r="M30" s="107"/>
+      <c r="N30" s="100">
+        <f>L30+1</f>
+        <v>15</v>
+      </c>
+      <c r="O30" s="107"/>
+      <c r="P30" s="100">
+        <f>N30+1</f>
+        <v>16</v>
+      </c>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="100">
+        <f>P30+1</f>
+        <v>17</v>
+      </c>
+      <c r="S30" s="107"/>
+      <c r="T30" s="100">
+        <f>R30+1</f>
+        <v>18</v>
+      </c>
+      <c r="U30" s="100">
+        <f>T30+1</f>
+        <v>19</v>
+      </c>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="100">
+        <f>U30+1</f>
+        <v>20</v>
+      </c>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="100">
+        <f>X30+1</f>
+        <v>21</v>
+      </c>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="100">
+        <f>Z30+1</f>
+        <v>22</v>
+      </c>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="100">
+        <f>AB30+1</f>
+        <v>23</v>
+      </c>
+      <c r="AE30" s="107"/>
+      <c r="AF30" s="100">
+        <f>AD30+1</f>
+        <v>24</v>
+      </c>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="100">
+        <f>AF30+1</f>
+        <v>25</v>
+      </c>
+      <c r="AI30" s="107"/>
+      <c r="AJ30" s="100">
+        <f>AH30+1</f>
+        <v>26</v>
+      </c>
+      <c r="AK30" s="107"/>
+      <c r="AL30" s="100">
+        <f>AJ30+1</f>
+        <v>27</v>
+      </c>
+      <c r="AM30" s="107"/>
+      <c r="AN30" s="100">
+        <f>AL30+1</f>
+        <v>28</v>
+      </c>
+      <c r="AO30" s="100">
+        <f>AN30+1</f>
+        <v>29</v>
+      </c>
+      <c r="AP30" s="107"/>
+      <c r="AQ30" s="100">
+        <f>AO30+1</f>
+        <v>30</v>
+      </c>
+      <c r="AR30" s="100"/>
+    </row>
+    <row r="31" spans="1:58" ht="93.6">
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100">
+        <f>$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="W31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ31" s="100"/>
+      <c r="AK31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN31" s="100"/>
+      <c r="AO31" s="100"/>
+      <c r="AP31" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ31" s="100"/>
+      <c r="AR31" s="100"/>
+    </row>
+    <row r="32" spans="1:58">
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="94"/>
+      <c r="AM32" s="94"/>
+      <c r="AN32" s="94"/>
+      <c r="AO32" s="94"/>
+      <c r="AP32" s="94"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="94"/>
+      <c r="AT32" s="94"/>
+      <c r="AU32" s="94"/>
+    </row>
+    <row r="33" spans="1:76" ht="20.399999999999999">
+      <c r="A33" s="94"/>
+      <c r="B33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="V33" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="W33" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="X33" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF33" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ33" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL33" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO33" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP33" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ33" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR33" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:76" ht="15.6">
+      <c r="A34" s="94"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="113"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="113"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="97"/>
+      <c r="AR34" s="94"/>
+    </row>
+    <row r="35" spans="1:76" ht="15.6">
+      <c r="A35" s="100"/>
+      <c r="B35" s="100">
+        <f>A25</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="111">
+        <f>AQ30+1</f>
+        <v>31</v>
+      </c>
+      <c r="D35" s="107"/>
+      <c r="E35" s="100">
+        <f>C35+1</f>
+        <v>32</v>
+      </c>
+      <c r="F35" s="107"/>
+      <c r="G35" s="100">
+        <f>E35+1</f>
+        <v>33</v>
+      </c>
+      <c r="H35" s="107"/>
+      <c r="I35" s="100">
+        <f>G35+1</f>
+        <v>34</v>
+      </c>
+      <c r="J35" s="107"/>
+      <c r="K35" s="100">
+        <f>I35+1</f>
+        <v>35</v>
+      </c>
+      <c r="L35" s="107"/>
+      <c r="M35" s="100">
+        <f>K35+1</f>
+        <v>36</v>
+      </c>
+      <c r="N35" s="107"/>
+      <c r="O35" s="100">
+        <f>M35+1</f>
+        <v>37</v>
+      </c>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="100">
+        <f>O35+1</f>
+        <v>38</v>
+      </c>
+      <c r="R35" s="107"/>
+      <c r="S35" s="100">
+        <f>Q35+1</f>
+        <v>39</v>
+      </c>
+      <c r="T35" s="107"/>
+      <c r="U35" s="100">
+        <f>S35+1</f>
+        <v>40</v>
+      </c>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="36">
+        <f>E35</f>
+        <v>32</v>
+      </c>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="36">
+        <f>G35</f>
+        <v>33</v>
+      </c>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="36">
+        <f>I35</f>
+        <v>34</v>
+      </c>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="36">
+        <f>K35</f>
+        <v>35</v>
+      </c>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="36">
+        <f>M35</f>
+        <v>36</v>
+      </c>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="36">
+        <f>O35</f>
+        <v>37</v>
+      </c>
+      <c r="AI35" s="107"/>
+      <c r="AJ35" s="36">
+        <f>Q35</f>
+        <v>38</v>
+      </c>
+      <c r="AK35" s="107"/>
+      <c r="AL35" s="36">
+        <f>S35</f>
+        <v>39</v>
+      </c>
+      <c r="AM35" s="107"/>
+      <c r="AN35" s="36">
+        <f>U35</f>
+        <v>40</v>
+      </c>
+      <c r="AO35" s="107"/>
+      <c r="AP35" s="111">
+        <f>AN35+1</f>
+        <v>41</v>
+      </c>
+      <c r="AQ35" s="100">
+        <f>AP35+1</f>
+        <v>42</v>
+      </c>
+      <c r="AR35" s="100"/>
+    </row>
+    <row r="36" spans="1:76" ht="46.8">
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="100"/>
+      <c r="F36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="100"/>
+      <c r="H36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="100"/>
+      <c r="J36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="100"/>
+      <c r="L36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="100"/>
+      <c r="N36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="100"/>
+      <c r="P36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="S36" s="100"/>
+      <c r="T36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="U36" s="100"/>
+      <c r="V36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="W36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="X36" s="100"/>
+      <c r="Y36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z36" s="100"/>
+      <c r="AA36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD36" s="100"/>
+      <c r="AE36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH36" s="100"/>
+      <c r="AI36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ36" s="100"/>
+      <c r="AK36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL36" s="100"/>
+      <c r="AM36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN36" s="100"/>
+      <c r="AO36" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP36" s="100"/>
+      <c r="AQ36" s="100"/>
+    </row>
+    <row r="37" spans="1:76">
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="94"/>
+      <c r="AC37" s="94"/>
+      <c r="AD37" s="94"/>
+      <c r="AE37" s="94"/>
+      <c r="AF37" s="94"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="94"/>
+      <c r="AI37" s="94"/>
+      <c r="AJ37" s="94"/>
+      <c r="AK37" s="94"/>
+      <c r="AL37" s="94"/>
+      <c r="AM37" s="94"/>
+      <c r="AN37" s="94"/>
+      <c r="AO37" s="94"/>
+      <c r="AP37" s="94"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="94"/>
+      <c r="AS37" s="94"/>
+      <c r="AT37" s="94"/>
+      <c r="AU37" s="94"/>
+    </row>
+    <row r="38" spans="1:76" ht="20.399999999999999">
+      <c r="A38" s="94"/>
+      <c r="B38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O38" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T38" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="V38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="X38" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="94"/>
+      <c r="AC38" s="94"/>
+      <c r="AD38" s="94"/>
+      <c r="AE38" s="94"/>
+      <c r="AF38" s="94"/>
+      <c r="AG38" s="94"/>
+      <c r="AH38" s="94"/>
+      <c r="AI38" s="94"/>
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="94"/>
+      <c r="AL38" s="94"/>
+      <c r="AM38" s="94"/>
+      <c r="AN38" s="94"/>
+      <c r="AO38" s="94"/>
+      <c r="AP38" s="94"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="94"/>
+      <c r="AS38" s="94"/>
+      <c r="AT38" s="94"/>
+      <c r="AU38" s="94"/>
+    </row>
+    <row r="39" spans="1:76" ht="15.6">
+      <c r="A39" s="99"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="97"/>
+      <c r="U39" s="97"/>
+      <c r="V39" s="97"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="99"/>
+      <c r="AB39" s="99"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="99"/>
+      <c r="AE39" s="99"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="99"/>
+      <c r="AH39" s="99"/>
+      <c r="AI39" s="99"/>
+      <c r="AJ39" s="99"/>
+      <c r="AK39" s="99"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="99"/>
+      <c r="AN39" s="99"/>
+      <c r="AO39" s="99"/>
+      <c r="AP39" s="99"/>
+      <c r="AQ39" s="99"/>
+      <c r="AR39" s="99"/>
+      <c r="AS39" s="99"/>
+      <c r="AT39" s="99"/>
+      <c r="AU39" s="99"/>
+    </row>
+    <row r="40" spans="1:76" ht="15.6">
+      <c r="A40" s="115"/>
+      <c r="B40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="115">
+        <f>AQ35+1</f>
+        <v>43</v>
+      </c>
+      <c r="D40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="115">
+        <f>C40+1</f>
+        <v>44</v>
+      </c>
+      <c r="F40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="115">
+        <f>E40+1</f>
+        <v>45</v>
+      </c>
+      <c r="H40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="115">
+        <f>G40+1</f>
+        <v>46</v>
+      </c>
+      <c r="J40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="115">
+        <f>I40+1</f>
+        <v>47</v>
+      </c>
+      <c r="L40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="115">
+        <f>K40+1</f>
+        <v>48</v>
+      </c>
+      <c r="N40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="115">
+        <f>M40+1</f>
+        <v>49</v>
+      </c>
+      <c r="P40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="119">
+        <f>C40</f>
+        <v>43</v>
+      </c>
+      <c r="R40" s="115">
+        <f>O40+1</f>
+        <v>50</v>
+      </c>
+      <c r="S40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="115">
+        <f>R40+1</f>
+        <v>51</v>
+      </c>
+      <c r="U40" s="115">
+        <f t="shared" ref="U40" si="10">T40+1</f>
+        <v>52</v>
+      </c>
+      <c r="V40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="119">
+        <f>G40</f>
+        <v>45</v>
+      </c>
+      <c r="X40" s="115">
+        <f>U40+1</f>
+        <v>53</v>
+      </c>
+      <c r="Y40" s="115">
+        <f>$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="115">
+        <f>X40+1</f>
+        <v>54</v>
+      </c>
+      <c r="AA40" s="116"/>
+      <c r="AB40" s="116"/>
+      <c r="AC40" s="116"/>
+      <c r="AD40" s="116"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="116"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="116"/>
+      <c r="AI40" s="116"/>
+      <c r="AJ40" s="116"/>
+      <c r="AK40" s="116"/>
+      <c r="AL40" s="116"/>
+      <c r="AM40" s="116"/>
+      <c r="AN40" s="116"/>
+      <c r="AO40" s="116"/>
+      <c r="AP40" s="116"/>
+      <c r="AQ40" s="116"/>
+      <c r="AR40" s="116"/>
+      <c r="AS40" s="116"/>
+      <c r="AT40" s="116"/>
+      <c r="AU40" s="116"/>
+    </row>
+    <row r="43" spans="1:76" ht="20.399999999999999">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="11"/>
+      <c r="BD43" s="11"/>
+      <c r="BE43" s="11"/>
+      <c r="BF43" s="11"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+      <c r="BK43"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+      <c r="BN43"/>
+      <c r="BO43"/>
+    </row>
+    <row r="44" spans="1:76">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
+      <c r="AR44"/>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44"/>
+      <c r="AV44"/>
+      <c r="AW44"/>
+      <c r="AX44"/>
+      <c r="AY44"/>
+      <c r="AZ44"/>
+      <c r="BA44"/>
+      <c r="BB44"/>
+      <c r="BC44"/>
+      <c r="BD44"/>
+      <c r="BE44"/>
+      <c r="BF44"/>
+      <c r="BG44"/>
+      <c r="BH44"/>
+      <c r="BI44"/>
+      <c r="BJ44"/>
+      <c r="BK44"/>
+      <c r="BL44"/>
+      <c r="BM44"/>
+      <c r="BN44"/>
+      <c r="BO44"/>
+      <c r="BP44"/>
+      <c r="BQ44"/>
+    </row>
+    <row r="45" spans="1:76">
+      <c r="A45"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="120">
+        <v>0</v>
+      </c>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120">
+        <v>1</v>
+      </c>
+      <c r="G45" s="120"/>
+      <c r="H45" s="135">
+        <v>2</v>
+      </c>
+      <c r="I45" s="135">
+        <v>3</v>
+      </c>
+      <c r="J45" s="135">
+        <v>4</v>
+      </c>
+      <c r="K45" s="135">
+        <v>5</v>
+      </c>
+      <c r="L45" s="135">
+        <v>6</v>
+      </c>
+      <c r="M45" s="135">
+        <v>7</v>
+      </c>
+      <c r="N45" s="135">
+        <v>8</v>
+      </c>
+      <c r="O45" s="135">
+        <v>9</v>
+      </c>
+      <c r="P45" s="135">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="135">
+        <v>11</v>
+      </c>
+      <c r="R45" s="135">
+        <v>12</v>
+      </c>
+      <c r="S45" s="135">
+        <v>13</v>
+      </c>
+      <c r="T45" s="135">
+        <v>14</v>
+      </c>
+      <c r="U45" s="135">
+        <v>15</v>
+      </c>
+      <c r="V45" s="135">
+        <v>16</v>
+      </c>
+      <c r="W45" s="135">
+        <v>17</v>
+      </c>
+      <c r="X45" s="135">
+        <v>18</v>
+      </c>
+      <c r="Y45" s="135">
+        <v>19</v>
+      </c>
+      <c r="Z45" s="135">
+        <v>20</v>
+      </c>
+      <c r="AA45" s="135">
+        <v>21</v>
+      </c>
+      <c r="AB45" s="135">
+        <v>22</v>
+      </c>
+      <c r="AC45" s="135">
+        <v>23</v>
+      </c>
+      <c r="AD45" s="135">
+        <v>24</v>
+      </c>
+      <c r="AE45" s="135">
+        <v>25</v>
+      </c>
+      <c r="AF45" s="135">
+        <v>26</v>
+      </c>
+      <c r="AG45" s="135">
+        <v>27</v>
+      </c>
+      <c r="AH45" s="135">
+        <v>28</v>
+      </c>
+      <c r="AI45" s="135">
+        <v>29</v>
+      </c>
+      <c r="AJ45" s="135">
+        <v>30</v>
+      </c>
+      <c r="AK45" s="135">
+        <v>31</v>
+      </c>
+      <c r="AL45" s="135">
+        <v>32</v>
+      </c>
+      <c r="AM45" s="135">
+        <v>33</v>
+      </c>
+      <c r="AN45" s="135">
+        <v>34</v>
+      </c>
+      <c r="AO45" s="135">
+        <v>35</v>
+      </c>
+      <c r="AP45" s="135">
+        <v>36</v>
+      </c>
+      <c r="AQ45" s="135">
+        <v>37</v>
+      </c>
+      <c r="AR45" s="135">
+        <v>38</v>
+      </c>
+      <c r="AS45" s="135">
+        <v>39</v>
+      </c>
+      <c r="AT45" s="135">
+        <v>40</v>
+      </c>
+      <c r="AU45" s="135">
+        <v>41</v>
+      </c>
+      <c r="AV45" s="135">
+        <v>42</v>
+      </c>
+      <c r="AW45" s="135">
+        <v>43</v>
+      </c>
+      <c r="AX45" s="135">
+        <v>44</v>
+      </c>
+      <c r="AY45" s="135">
+        <v>45</v>
+      </c>
+      <c r="AZ45" s="135">
+        <v>46</v>
+      </c>
+      <c r="BA45" s="135">
+        <v>47</v>
+      </c>
+      <c r="BB45" s="135">
+        <v>48</v>
+      </c>
+      <c r="BC45" s="135">
+        <v>49</v>
+      </c>
+      <c r="BD45" s="135">
+        <v>50</v>
+      </c>
+      <c r="BE45" s="135">
+        <v>51</v>
+      </c>
+      <c r="BF45" s="135">
+        <v>52</v>
+      </c>
+      <c r="BG45" s="135">
+        <v>53</v>
+      </c>
+      <c r="BH45" s="136">
+        <v>54</v>
+      </c>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+    </row>
+    <row r="46" spans="1:76">
+      <c r="A46"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="121">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="121"/>
+      <c r="F46" s="122">
+        <f>X30</f>
+        <v>20</v>
+      </c>
+      <c r="G46" s="122"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="129"/>
+      <c r="P46" s="144" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46" s="121">
+        <f>X30</f>
+        <v>20</v>
+      </c>
+      <c r="R46" s="121"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="121"/>
+      <c r="V46" s="121"/>
+      <c r="W46" s="121"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="121"/>
+      <c r="AA46" s="121"/>
+      <c r="AB46" s="121"/>
+      <c r="AC46" s="121"/>
+      <c r="AD46" s="121"/>
+      <c r="AE46" s="121"/>
+      <c r="AF46" s="121"/>
+      <c r="AG46" s="121"/>
+      <c r="AH46" s="121"/>
+      <c r="AI46" s="121"/>
+      <c r="AJ46" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK46" s="121">
+        <f>E35</f>
+        <v>32</v>
+      </c>
+      <c r="AL46" s="121"/>
+      <c r="AM46" s="121"/>
+      <c r="AN46" s="121"/>
+      <c r="AO46" s="121"/>
+      <c r="AP46" s="121"/>
+      <c r="AQ46" s="121"/>
+      <c r="AR46" s="121"/>
+      <c r="AS46" s="121"/>
+      <c r="AT46" s="121"/>
+      <c r="AU46" s="129"/>
+      <c r="AV46" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW46" s="129"/>
+      <c r="AX46" s="129"/>
+      <c r="AY46" s="129"/>
+      <c r="AZ46" s="129"/>
+      <c r="BA46" s="129"/>
+      <c r="BB46" s="129"/>
+      <c r="BC46" s="129"/>
+      <c r="BD46" s="129"/>
+      <c r="BE46" s="129"/>
+      <c r="BF46" s="129"/>
+      <c r="BG46" s="129"/>
+      <c r="BH46" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+      <c r="BK46"/>
+      <c r="BL46"/>
+      <c r="BM46"/>
+      <c r="BN46"/>
+      <c r="BO46"/>
+      <c r="BP46"/>
+      <c r="BQ46"/>
+      <c r="BR46"/>
+      <c r="BS46"/>
+      <c r="BT46"/>
+      <c r="BU46"/>
+      <c r="BV46"/>
+      <c r="BW46"/>
+      <c r="BX46"/>
+    </row>
+    <row r="47" spans="1:76">
+      <c r="A47"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="121">
+        <f>F30</f>
+        <v>11</v>
+      </c>
+      <c r="E47" s="121"/>
+      <c r="F47" s="138">
+        <f>C25</f>
+        <v>2</v>
+      </c>
+      <c r="G47" s="138">
+        <f>Z30</f>
+        <v>21</v>
+      </c>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="129"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="121">
+        <f>Z30</f>
+        <v>21</v>
+      </c>
+      <c r="R47" s="121"/>
+      <c r="S47" s="121"/>
+      <c r="T47" s="121"/>
+      <c r="U47" s="121"/>
+      <c r="V47" s="121"/>
+      <c r="W47" s="121"/>
+      <c r="X47" s="121"/>
+      <c r="Y47" s="121"/>
+      <c r="Z47" s="121"/>
+      <c r="AA47" s="121"/>
+      <c r="AB47" s="121"/>
+      <c r="AC47" s="121"/>
+      <c r="AD47" s="121"/>
+      <c r="AE47" s="121"/>
+      <c r="AF47" s="121"/>
+      <c r="AG47" s="121"/>
+      <c r="AH47" s="121"/>
+      <c r="AI47" s="121"/>
+      <c r="AJ47" s="80"/>
+      <c r="AK47" s="121">
+        <f>G35</f>
+        <v>33</v>
+      </c>
+      <c r="AL47" s="121"/>
+      <c r="AM47" s="121"/>
+      <c r="AN47" s="121"/>
+      <c r="AO47" s="121"/>
+      <c r="AP47" s="121"/>
+      <c r="AQ47" s="121"/>
+      <c r="AR47" s="121"/>
+      <c r="AS47" s="121"/>
+      <c r="AT47" s="121"/>
+      <c r="AU47" s="129"/>
+      <c r="AV47" s="80"/>
+      <c r="AW47" s="129"/>
+      <c r="AX47" s="129"/>
+      <c r="AY47" s="129"/>
+      <c r="AZ47" s="129"/>
+      <c r="BA47" s="129"/>
+      <c r="BB47" s="129"/>
+      <c r="BC47" s="129"/>
+      <c r="BD47" s="129"/>
+      <c r="BE47" s="129"/>
+      <c r="BF47" s="129"/>
+      <c r="BG47" s="129"/>
+      <c r="BH47" s="80"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+      <c r="BW47"/>
+      <c r="BX47"/>
+    </row>
+    <row r="48" spans="1:76">
+      <c r="A48"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="121">
+        <f>H30</f>
+        <v>12</v>
+      </c>
+      <c r="E48" s="121"/>
+      <c r="F48" s="122">
+        <f>AB30</f>
+        <v>22</v>
+      </c>
+      <c r="G48" s="122"/>
+      <c r="H48" s="129">
+        <f>D25</f>
+        <v>3</v>
+      </c>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="129">
+        <f>J25</f>
+        <v>7</v>
+      </c>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="80"/>
+      <c r="Q48" s="121">
+        <f>AB30</f>
+        <v>22</v>
+      </c>
+      <c r="R48" s="121"/>
+      <c r="S48" s="121"/>
+      <c r="T48" s="121"/>
+      <c r="U48" s="121"/>
+      <c r="V48" s="121"/>
+      <c r="W48" s="121"/>
+      <c r="X48" s="121"/>
+      <c r="Y48" s="121"/>
+      <c r="Z48" s="121"/>
+      <c r="AA48" s="121"/>
+      <c r="AB48" s="121"/>
+      <c r="AC48" s="121"/>
+      <c r="AD48" s="121"/>
+      <c r="AE48" s="121"/>
+      <c r="AF48" s="121"/>
+      <c r="AG48" s="121"/>
+      <c r="AH48" s="121"/>
+      <c r="AI48" s="121"/>
+      <c r="AJ48" s="80"/>
+      <c r="AK48" s="121">
+        <f>I35</f>
+        <v>34</v>
+      </c>
+      <c r="AL48" s="121"/>
+      <c r="AM48" s="121"/>
+      <c r="AN48" s="121"/>
+      <c r="AO48" s="121"/>
+      <c r="AP48" s="121"/>
+      <c r="AQ48" s="121"/>
+      <c r="AR48" s="121"/>
+      <c r="AS48" s="121"/>
+      <c r="AT48" s="121"/>
+      <c r="AU48" s="129"/>
+      <c r="AV48" s="80"/>
+      <c r="AW48" s="129"/>
+      <c r="AX48" s="129"/>
+      <c r="AY48" s="129"/>
+      <c r="AZ48" s="129"/>
+      <c r="BA48" s="129"/>
+      <c r="BB48" s="129"/>
+      <c r="BC48" s="129"/>
+      <c r="BD48" s="129"/>
+      <c r="BE48" s="129"/>
+      <c r="BF48" s="129"/>
+      <c r="BG48" s="129"/>
+      <c r="BH48" s="80"/>
+      <c r="BI48"/>
+      <c r="BJ48"/>
+      <c r="BK48"/>
+      <c r="BL48"/>
+      <c r="BM48"/>
+      <c r="BN48"/>
+      <c r="BO48"/>
+      <c r="BP48"/>
+      <c r="BQ48"/>
+      <c r="BR48"/>
+      <c r="BS48"/>
+      <c r="BT48"/>
+      <c r="BU48"/>
+      <c r="BV48"/>
+      <c r="BW48"/>
+      <c r="BX48"/>
+    </row>
+    <row r="49" spans="1:76">
+      <c r="A49"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="121">
+        <f>J30</f>
+        <v>13</v>
+      </c>
+      <c r="E49" s="121"/>
+      <c r="F49" s="122">
+        <f>AD30</f>
+        <v>23</v>
+      </c>
+      <c r="G49" s="122"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129">
+        <f>E25</f>
+        <v>4</v>
+      </c>
+      <c r="J49" s="129"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="129">
+        <f>$AD$30</f>
+        <v>23</v>
+      </c>
+      <c r="R49" s="129">
+        <f t="shared" ref="R49:W49" si="11">$AD$30</f>
+        <v>23</v>
+      </c>
+      <c r="S49" s="129">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="T49" s="129">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="U49" s="129">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="V49" s="129">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="W49" s="129">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="X49" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y49" s="129">
+        <f>$AD$30</f>
+        <v>23</v>
+      </c>
+      <c r="Z49" s="129">
+        <f t="shared" ref="Z49:AI49" si="12">$AD$30</f>
+        <v>23</v>
+      </c>
+      <c r="AA49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AB49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AC49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AD49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AE49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AF49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AG49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AH49" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI49" s="129">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AJ49" s="80"/>
+      <c r="AK49" s="121">
+        <f>K35</f>
+        <v>35</v>
+      </c>
+      <c r="AL49" s="121"/>
+      <c r="AM49" s="121"/>
+      <c r="AN49" s="121"/>
+      <c r="AO49" s="121"/>
+      <c r="AP49" s="121"/>
+      <c r="AQ49" s="121"/>
+      <c r="AR49" s="121"/>
+      <c r="AS49" s="121"/>
+      <c r="AT49" s="121"/>
+      <c r="AU49" s="129"/>
+      <c r="AV49" s="80"/>
+      <c r="AW49" s="129"/>
+      <c r="AX49" s="129"/>
+      <c r="AY49" s="129"/>
+      <c r="AZ49" s="129"/>
+      <c r="BA49" s="129"/>
+      <c r="BB49" s="129"/>
+      <c r="BC49" s="129"/>
+      <c r="BD49" s="129"/>
+      <c r="BE49" s="129"/>
+      <c r="BF49" s="129"/>
+      <c r="BG49" s="129"/>
+      <c r="BH49" s="80"/>
+      <c r="BI49"/>
+      <c r="BJ49"/>
+      <c r="BK49"/>
+      <c r="BL49"/>
+      <c r="BM49"/>
+      <c r="BN49"/>
+      <c r="BO49"/>
+      <c r="BP49"/>
+      <c r="BQ49"/>
+      <c r="BR49"/>
+      <c r="BS49"/>
+      <c r="BT49"/>
+      <c r="BU49"/>
+      <c r="BV49"/>
+      <c r="BW49"/>
+      <c r="BX49"/>
+    </row>
+    <row r="50" spans="1:76" ht="18">
+      <c r="A50"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="121">
+        <f>L30</f>
+        <v>14</v>
+      </c>
+      <c r="E50" s="121"/>
+      <c r="F50" s="138">
+        <f>I25</f>
+        <v>6</v>
+      </c>
+      <c r="G50" s="138">
+        <f>AF30</f>
+        <v>24</v>
+      </c>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="129"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="121">
+        <f>AF30</f>
+        <v>24</v>
+      </c>
+      <c r="R50" s="121"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="121"/>
+      <c r="U50" s="121"/>
+      <c r="V50" s="121"/>
+      <c r="W50" s="121"/>
+      <c r="X50" s="121"/>
+      <c r="Y50" s="121"/>
+      <c r="Z50" s="121"/>
+      <c r="AA50" s="121"/>
+      <c r="AB50" s="121"/>
+      <c r="AC50" s="121"/>
+      <c r="AD50" s="121"/>
+      <c r="AE50" s="121"/>
+      <c r="AF50" s="121"/>
+      <c r="AG50" s="121"/>
+      <c r="AH50" s="121"/>
+      <c r="AI50" s="121"/>
+      <c r="AJ50" s="80"/>
+      <c r="AK50" s="121">
+        <f>M35</f>
+        <v>36</v>
+      </c>
+      <c r="AL50" s="121"/>
+      <c r="AM50" s="121"/>
+      <c r="AN50" s="121"/>
+      <c r="AO50" s="121"/>
+      <c r="AP50" s="121"/>
+      <c r="AQ50" s="121"/>
+      <c r="AR50" s="121"/>
+      <c r="AS50" s="121"/>
+      <c r="AT50" s="121"/>
+      <c r="AU50" s="129"/>
+      <c r="AV50" s="80"/>
+      <c r="AW50" s="129"/>
+      <c r="AX50" s="129"/>
+      <c r="AY50" s="129"/>
+      <c r="AZ50" s="129"/>
+      <c r="BA50" s="129"/>
+      <c r="BB50" s="129"/>
+      <c r="BC50" s="129"/>
+      <c r="BD50" s="129"/>
+      <c r="BE50" s="129"/>
+      <c r="BF50" s="129"/>
+      <c r="BG50" s="129"/>
+      <c r="BH50" s="80"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+      <c r="BR50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50"/>
+      <c r="BV50"/>
+      <c r="BW50"/>
+      <c r="BX50"/>
+    </row>
+    <row r="51" spans="1:76" ht="18">
+      <c r="A51"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="121">
+        <f>T30</f>
+        <v>18</v>
+      </c>
+      <c r="E51" s="121"/>
+      <c r="F51" s="122">
+        <f>AN30</f>
+        <v>28</v>
+      </c>
+      <c r="G51" s="122"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129">
+        <f>K25</f>
+        <v>8</v>
+      </c>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="121">
+        <f>AN30</f>
+        <v>28</v>
+      </c>
+      <c r="R51" s="121"/>
+      <c r="S51" s="121"/>
+      <c r="T51" s="121"/>
+      <c r="U51" s="121"/>
+      <c r="V51" s="121"/>
+      <c r="W51" s="121"/>
+      <c r="X51" s="121"/>
+      <c r="Y51" s="121"/>
+      <c r="Z51" s="121"/>
+      <c r="AA51" s="121"/>
+      <c r="AB51" s="121"/>
+      <c r="AC51" s="121"/>
+      <c r="AD51" s="121"/>
+      <c r="AE51" s="121"/>
+      <c r="AF51" s="121"/>
+      <c r="AG51" s="121"/>
+      <c r="AH51" s="121"/>
+      <c r="AI51" s="121"/>
+      <c r="AJ51" s="80"/>
+      <c r="AK51" s="121">
+        <f>O35</f>
+        <v>37</v>
+      </c>
+      <c r="AL51" s="121"/>
+      <c r="AM51" s="121"/>
+      <c r="AN51" s="121"/>
+      <c r="AO51" s="121"/>
+      <c r="AP51" s="121"/>
+      <c r="AQ51" s="121"/>
+      <c r="AR51" s="121"/>
+      <c r="AS51" s="121"/>
+      <c r="AT51" s="121"/>
+      <c r="AU51" s="129"/>
+      <c r="AV51" s="80"/>
+      <c r="AW51" s="129"/>
+      <c r="AX51" s="129"/>
+      <c r="AY51" s="129"/>
+      <c r="AZ51" s="129"/>
+      <c r="BA51" s="129"/>
+      <c r="BB51" s="129"/>
+      <c r="BC51" s="129"/>
+      <c r="BD51" s="129"/>
+      <c r="BE51" s="129"/>
+      <c r="BF51" s="129"/>
+      <c r="BG51" s="129"/>
+      <c r="BH51" s="80"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+      <c r="BR51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51"/>
+      <c r="BV51"/>
+      <c r="BW51"/>
+      <c r="BX51"/>
+    </row>
+    <row r="52" spans="1:76" ht="18">
+      <c r="A52"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="121">
+        <f>N30</f>
+        <v>15</v>
+      </c>
+      <c r="E52" s="121"/>
+      <c r="F52" s="122">
+        <f>AH30</f>
+        <v>25</v>
+      </c>
+      <c r="G52" s="122"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129">
+        <f>L25</f>
+        <v>9</v>
+      </c>
+      <c r="O52" s="129"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="121">
+        <f>AH30</f>
+        <v>25</v>
+      </c>
+      <c r="R52" s="121"/>
+      <c r="S52" s="121"/>
+      <c r="T52" s="121"/>
+      <c r="U52" s="121"/>
+      <c r="V52" s="121"/>
+      <c r="W52" s="121"/>
+      <c r="X52" s="121"/>
+      <c r="Y52" s="121"/>
+      <c r="Z52" s="121"/>
+      <c r="AA52" s="121"/>
+      <c r="AB52" s="121"/>
+      <c r="AC52" s="121"/>
+      <c r="AD52" s="121"/>
+      <c r="AE52" s="121"/>
+      <c r="AF52" s="121"/>
+      <c r="AG52" s="121"/>
+      <c r="AH52" s="121"/>
+      <c r="AI52" s="121"/>
+      <c r="AJ52" s="80"/>
+      <c r="AK52" s="121">
+        <f>Q35</f>
+        <v>38</v>
+      </c>
+      <c r="AL52" s="121"/>
+      <c r="AM52" s="121"/>
+      <c r="AN52" s="121"/>
+      <c r="AO52" s="121"/>
+      <c r="AP52" s="121"/>
+      <c r="AQ52" s="121"/>
+      <c r="AR52" s="121"/>
+      <c r="AS52" s="121"/>
+      <c r="AT52" s="121"/>
+      <c r="AU52" s="129"/>
+      <c r="AV52" s="80"/>
+      <c r="AW52" s="129"/>
+      <c r="AX52" s="129"/>
+      <c r="AY52" s="129"/>
+      <c r="AZ52" s="129"/>
+      <c r="BA52" s="129"/>
+      <c r="BB52" s="129"/>
+      <c r="BC52" s="129"/>
+      <c r="BD52" s="129"/>
+      <c r="BE52" s="129"/>
+      <c r="BF52" s="129"/>
+      <c r="BG52" s="129"/>
+      <c r="BH52" s="80"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
+      <c r="BK52"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+      <c r="BR52"/>
+      <c r="BS52"/>
+      <c r="BT52"/>
+      <c r="BU52"/>
+      <c r="BV52"/>
+      <c r="BW52"/>
+      <c r="BX52"/>
+    </row>
+    <row r="53" spans="1:76">
+      <c r="A53"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="121">
+        <f>P30</f>
+        <v>16</v>
+      </c>
+      <c r="E53" s="121"/>
+      <c r="F53" s="122">
+        <f>AJ30</f>
+        <v>26</v>
+      </c>
+      <c r="G53" s="122"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="129"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="121">
+        <f>AJ30</f>
+        <v>26</v>
+      </c>
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
+      <c r="T53" s="121"/>
+      <c r="U53" s="121"/>
+      <c r="V53" s="121"/>
+      <c r="W53" s="121"/>
+      <c r="X53" s="121"/>
+      <c r="Y53" s="121"/>
+      <c r="Z53" s="121"/>
+      <c r="AA53" s="121"/>
+      <c r="AB53" s="121"/>
+      <c r="AC53" s="121"/>
+      <c r="AD53" s="121"/>
+      <c r="AE53" s="121"/>
+      <c r="AF53" s="121"/>
+      <c r="AG53" s="121"/>
+      <c r="AH53" s="121"/>
+      <c r="AI53" s="121"/>
+      <c r="AJ53" s="80"/>
+      <c r="AK53" s="121">
+        <f>S35</f>
+        <v>39</v>
+      </c>
+      <c r="AL53" s="121"/>
+      <c r="AM53" s="121"/>
+      <c r="AN53" s="121"/>
+      <c r="AO53" s="121"/>
+      <c r="AP53" s="121"/>
+      <c r="AQ53" s="121"/>
+      <c r="AR53" s="121"/>
+      <c r="AS53" s="121"/>
+      <c r="AT53" s="121"/>
+      <c r="AU53" s="129"/>
+      <c r="AV53" s="80"/>
+      <c r="AW53" s="129"/>
+      <c r="AX53" s="129"/>
+      <c r="AY53" s="129"/>
+      <c r="AZ53" s="129"/>
+      <c r="BA53" s="129"/>
+      <c r="BB53" s="129"/>
+      <c r="BC53" s="129"/>
+      <c r="BD53" s="129"/>
+      <c r="BE53" s="129"/>
+      <c r="BF53" s="129"/>
+      <c r="BG53" s="129"/>
+      <c r="BH53" s="80"/>
+      <c r="BI53"/>
+      <c r="BJ53"/>
+      <c r="BK53"/>
+      <c r="BL53"/>
+      <c r="BM53"/>
+      <c r="BN53"/>
+      <c r="BO53"/>
+      <c r="BP53"/>
+      <c r="BQ53"/>
+      <c r="BR53"/>
+      <c r="BS53"/>
+      <c r="BT53"/>
+      <c r="BU53"/>
+      <c r="BV53"/>
+      <c r="BW53"/>
+      <c r="BX53"/>
+    </row>
+    <row r="54" spans="1:76">
+      <c r="A54"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="121">
+        <f>R30</f>
+        <v>17</v>
+      </c>
+      <c r="E54" s="121"/>
+      <c r="F54" s="122">
+        <f>AL30</f>
+        <v>27</v>
+      </c>
+      <c r="G54" s="122"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="129"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="121">
+        <f>AL30</f>
+        <v>27</v>
+      </c>
+      <c r="R54" s="121"/>
+      <c r="S54" s="121"/>
+      <c r="T54" s="121"/>
+      <c r="U54" s="121"/>
+      <c r="V54" s="121"/>
+      <c r="W54" s="121"/>
+      <c r="X54" s="121"/>
+      <c r="Y54" s="121"/>
+      <c r="Z54" s="121"/>
+      <c r="AA54" s="121"/>
+      <c r="AB54" s="121"/>
+      <c r="AC54" s="121"/>
+      <c r="AD54" s="121"/>
+      <c r="AE54" s="121"/>
+      <c r="AF54" s="121"/>
+      <c r="AG54" s="121"/>
+      <c r="AH54" s="121"/>
+      <c r="AI54" s="121"/>
+      <c r="AJ54" s="80"/>
+      <c r="AK54" s="121">
+        <f>U35</f>
+        <v>40</v>
+      </c>
+      <c r="AL54" s="121"/>
+      <c r="AM54" s="121"/>
+      <c r="AN54" s="121"/>
+      <c r="AO54" s="121"/>
+      <c r="AP54" s="121"/>
+      <c r="AQ54" s="121"/>
+      <c r="AR54" s="121"/>
+      <c r="AS54" s="121"/>
+      <c r="AT54" s="121"/>
+      <c r="AU54" s="129"/>
+      <c r="AV54" s="80"/>
+      <c r="AW54" s="129"/>
+      <c r="AX54" s="129"/>
+      <c r="AY54" s="129"/>
+      <c r="AZ54" s="129"/>
+      <c r="BA54" s="129"/>
+      <c r="BB54" s="129"/>
+      <c r="BC54" s="129"/>
+      <c r="BD54" s="129"/>
+      <c r="BE54" s="129"/>
+      <c r="BF54" s="129"/>
+      <c r="BG54" s="129"/>
+      <c r="BH54" s="80"/>
+      <c r="BI54"/>
+      <c r="BJ54"/>
+      <c r="BK54"/>
+      <c r="BL54"/>
+      <c r="BM54"/>
+      <c r="BN54"/>
+      <c r="BO54"/>
+      <c r="BP54"/>
+      <c r="BQ54"/>
+      <c r="BR54"/>
+      <c r="BS54"/>
+      <c r="BT54"/>
+      <c r="BU54"/>
+      <c r="BV54"/>
+      <c r="BW54"/>
+      <c r="BX54"/>
+    </row>
+    <row r="55" spans="1:76" ht="15.6">
+      <c r="A55"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="121">
+        <f>C40</f>
+        <v>43</v>
+      </c>
+      <c r="E55" s="121"/>
+      <c r="F55" s="122">
+        <f>$AQ$30</f>
+        <v>30</v>
+      </c>
+      <c r="G55" s="122"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129">
+        <f>$F$25</f>
+        <v>5</v>
+      </c>
+      <c r="K55" s="80"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="129">
+        <f>$M$25</f>
+        <v>10</v>
+      </c>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="130">
+        <f>$AQ$30</f>
+        <v>30</v>
+      </c>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="131"/>
+      <c r="V55" s="131"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="131"/>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="131"/>
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="131"/>
+      <c r="AC55" s="131"/>
+      <c r="AD55" s="131"/>
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="131"/>
+      <c r="AG55" s="131"/>
+      <c r="AH55" s="131"/>
+      <c r="AI55" s="132"/>
+      <c r="AJ55" s="80"/>
+      <c r="AK55" s="129"/>
+      <c r="AL55" s="129"/>
+      <c r="AM55" s="129"/>
+      <c r="AN55" s="129"/>
+      <c r="AO55" s="129"/>
+      <c r="AP55" s="129"/>
+      <c r="AQ55" s="129"/>
+      <c r="AR55" s="129"/>
+      <c r="AS55" s="129"/>
+      <c r="AT55" s="129"/>
+      <c r="AU55" s="129"/>
+      <c r="AV55" s="80"/>
+      <c r="AW55" s="129"/>
+      <c r="AX55" s="129"/>
+      <c r="AY55" s="129"/>
+      <c r="AZ55" s="129"/>
+      <c r="BA55" s="129"/>
+      <c r="BB55" s="129"/>
+      <c r="BC55" s="129"/>
+      <c r="BD55" s="129"/>
+      <c r="BE55" s="129"/>
+      <c r="BF55" s="129"/>
+      <c r="BG55" s="129"/>
+      <c r="BH55" s="80"/>
+      <c r="BI55"/>
+      <c r="BJ55"/>
+      <c r="BK55"/>
+      <c r="BL55"/>
+      <c r="BM55"/>
+      <c r="BN55"/>
+      <c r="BO55"/>
+      <c r="BP55"/>
+      <c r="BQ55"/>
+      <c r="BR55"/>
+      <c r="BS55"/>
+      <c r="BT55"/>
+      <c r="BU55"/>
+      <c r="BV55"/>
+      <c r="BW55"/>
+      <c r="BX55"/>
+    </row>
+    <row r="56" spans="1:76">
+      <c r="A56"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="121">
+        <f>E40</f>
+        <v>44</v>
+      </c>
+      <c r="E56" s="121"/>
+      <c r="F56" s="122">
+        <f t="shared" ref="F56:F64" si="13">$AQ$30</f>
+        <v>30</v>
+      </c>
+      <c r="G56" s="122"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129">
+        <f t="shared" ref="J56:J64" si="14">$F$25</f>
+        <v>5</v>
+      </c>
+      <c r="K56" s="80"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="129"/>
+      <c r="O56" s="129">
+        <f t="shared" ref="O56:O64" si="15">$M$25</f>
+        <v>10</v>
+      </c>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="130">
+        <f t="shared" ref="Q56:Q64" si="16">$AQ$30</f>
+        <v>30</v>
+      </c>
+      <c r="R56" s="131"/>
+      <c r="S56" s="131"/>
+      <c r="T56" s="131"/>
+      <c r="U56" s="131"/>
+      <c r="V56" s="131"/>
+      <c r="W56" s="131"/>
+      <c r="X56" s="131"/>
+      <c r="Y56" s="131"/>
+      <c r="Z56" s="131"/>
+      <c r="AA56" s="131"/>
+      <c r="AB56" s="131"/>
+      <c r="AC56" s="131"/>
+      <c r="AD56" s="131"/>
+      <c r="AE56" s="131"/>
+      <c r="AF56" s="131"/>
+      <c r="AG56" s="131"/>
+      <c r="AH56" s="131"/>
+      <c r="AI56" s="132"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="129"/>
+      <c r="AL56" s="129"/>
+      <c r="AM56" s="129"/>
+      <c r="AN56" s="129"/>
+      <c r="AO56" s="129"/>
+      <c r="AP56" s="129"/>
+      <c r="AQ56" s="129"/>
+      <c r="AR56" s="129"/>
+      <c r="AS56" s="129"/>
+      <c r="AT56" s="129"/>
+      <c r="AU56" s="129"/>
+      <c r="AV56" s="80"/>
+      <c r="AW56" s="129"/>
+      <c r="AX56" s="129"/>
+      <c r="AY56" s="129"/>
+      <c r="AZ56" s="129"/>
+      <c r="BA56" s="129"/>
+      <c r="BB56" s="129"/>
+      <c r="BC56" s="129"/>
+      <c r="BD56" s="129"/>
+      <c r="BE56" s="129"/>
+      <c r="BF56" s="129"/>
+      <c r="BG56" s="129"/>
+      <c r="BH56" s="80"/>
+      <c r="BI56"/>
+      <c r="BJ56"/>
+      <c r="BK56"/>
+      <c r="BL56"/>
+      <c r="BM56"/>
+      <c r="BN56"/>
+      <c r="BO56"/>
+      <c r="BP56"/>
+      <c r="BQ56"/>
+      <c r="BR56"/>
+      <c r="BS56"/>
+      <c r="BT56"/>
+      <c r="BU56"/>
+      <c r="BV56"/>
+      <c r="BW56"/>
+      <c r="BX56"/>
+    </row>
+    <row r="57" spans="1:76" ht="18">
+      <c r="A57"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="121">
+        <f>G40</f>
+        <v>45</v>
+      </c>
+      <c r="E57" s="121"/>
+      <c r="F57" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G57" s="122"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K57" s="80"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R57" s="131"/>
+      <c r="S57" s="131"/>
+      <c r="T57" s="131"/>
+      <c r="U57" s="131"/>
+      <c r="V57" s="131"/>
+      <c r="W57" s="131"/>
+      <c r="X57" s="131"/>
+      <c r="Y57" s="131"/>
+      <c r="Z57" s="131"/>
+      <c r="AA57" s="131"/>
+      <c r="AB57" s="131"/>
+      <c r="AC57" s="131"/>
+      <c r="AD57" s="131"/>
+      <c r="AE57" s="131"/>
+      <c r="AF57" s="131"/>
+      <c r="AG57" s="131"/>
+      <c r="AH57" s="131"/>
+      <c r="AI57" s="132"/>
+      <c r="AJ57" s="80"/>
+      <c r="AK57" s="129"/>
+      <c r="AL57" s="129"/>
+      <c r="AM57" s="129"/>
+      <c r="AN57" s="129"/>
+      <c r="AO57" s="129"/>
+      <c r="AP57" s="129"/>
+      <c r="AQ57" s="129"/>
+      <c r="AR57" s="129"/>
+      <c r="AS57" s="129"/>
+      <c r="AT57" s="129"/>
+      <c r="AU57" s="129"/>
+      <c r="AV57" s="80"/>
+      <c r="AW57" s="129"/>
+      <c r="AX57" s="129"/>
+      <c r="AY57" s="129">
+        <f>X40</f>
+        <v>53</v>
+      </c>
+      <c r="AZ57" s="129"/>
+      <c r="BA57" s="129"/>
+      <c r="BB57" s="129"/>
+      <c r="BC57" s="129"/>
+      <c r="BD57" s="129"/>
+      <c r="BE57" s="129"/>
+      <c r="BF57" s="129"/>
+      <c r="BG57" s="129"/>
+      <c r="BH57" s="80"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+    </row>
+    <row r="58" spans="1:76" ht="15.6">
+      <c r="A58"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="121">
+        <f>I40</f>
+        <v>46</v>
+      </c>
+      <c r="E58" s="121"/>
+      <c r="F58" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G58" s="122"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K58" s="80"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R58" s="131"/>
+      <c r="S58" s="131"/>
+      <c r="T58" s="131"/>
+      <c r="U58" s="131"/>
+      <c r="V58" s="131"/>
+      <c r="W58" s="131"/>
+      <c r="X58" s="131"/>
+      <c r="Y58" s="131"/>
+      <c r="Z58" s="131"/>
+      <c r="AA58" s="131"/>
+      <c r="AB58" s="131"/>
+      <c r="AC58" s="131"/>
+      <c r="AD58" s="131"/>
+      <c r="AE58" s="131"/>
+      <c r="AF58" s="131"/>
+      <c r="AG58" s="131"/>
+      <c r="AH58" s="131"/>
+      <c r="AI58" s="132"/>
+      <c r="AJ58" s="80"/>
+      <c r="AK58" s="129"/>
+      <c r="AL58" s="129"/>
+      <c r="AM58" s="129"/>
+      <c r="AN58" s="129"/>
+      <c r="AO58" s="129"/>
+      <c r="AP58" s="129"/>
+      <c r="AQ58" s="129"/>
+      <c r="AR58" s="129"/>
+      <c r="AS58" s="129"/>
+      <c r="AT58" s="129"/>
+      <c r="AU58" s="129"/>
+      <c r="AV58" s="80"/>
+      <c r="AW58" s="129"/>
+      <c r="AX58" s="129"/>
+      <c r="AY58" s="129"/>
+      <c r="AZ58" s="129"/>
+      <c r="BA58" s="129"/>
+      <c r="BB58" s="129"/>
+      <c r="BC58" s="129"/>
+      <c r="BD58" s="129"/>
+      <c r="BE58" s="129"/>
+      <c r="BF58" s="129"/>
+      <c r="BG58" s="129"/>
+      <c r="BH58" s="80"/>
+      <c r="BI58"/>
+      <c r="BJ58"/>
+      <c r="BK58"/>
+      <c r="BL58"/>
+      <c r="BM58"/>
+      <c r="BN58"/>
+      <c r="BO58"/>
+      <c r="BP58"/>
+      <c r="BQ58"/>
+      <c r="BR58"/>
+      <c r="BS58"/>
+      <c r="BT58"/>
+      <c r="BU58"/>
+      <c r="BV58"/>
+      <c r="BW58"/>
+      <c r="BX58"/>
+    </row>
+    <row r="59" spans="1:76">
+      <c r="A59"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="121">
+        <f>K40</f>
+        <v>47</v>
+      </c>
+      <c r="E59" s="121"/>
+      <c r="F59" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G59" s="122"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K59" s="80"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R59" s="131"/>
+      <c r="S59" s="131"/>
+      <c r="T59" s="131"/>
+      <c r="U59" s="131"/>
+      <c r="V59" s="131"/>
+      <c r="W59" s="131"/>
+      <c r="X59" s="131"/>
+      <c r="Y59" s="131"/>
+      <c r="Z59" s="131"/>
+      <c r="AA59" s="131"/>
+      <c r="AB59" s="131"/>
+      <c r="AC59" s="131"/>
+      <c r="AD59" s="131"/>
+      <c r="AE59" s="131"/>
+      <c r="AF59" s="131"/>
+      <c r="AG59" s="131"/>
+      <c r="AH59" s="131"/>
+      <c r="AI59" s="132"/>
+      <c r="AJ59" s="80"/>
+      <c r="AK59" s="129"/>
+      <c r="AL59" s="129"/>
+      <c r="AM59" s="129"/>
+      <c r="AN59" s="129"/>
+      <c r="AO59" s="129"/>
+      <c r="AP59" s="129"/>
+      <c r="AQ59" s="129"/>
+      <c r="AR59" s="129"/>
+      <c r="AS59" s="129"/>
+      <c r="AT59" s="129"/>
+      <c r="AU59" s="129"/>
+      <c r="AV59" s="80"/>
+      <c r="AW59" s="129"/>
+      <c r="AX59" s="129"/>
+      <c r="AY59" s="129"/>
+      <c r="AZ59" s="129"/>
+      <c r="BA59" s="129"/>
+      <c r="BB59" s="129"/>
+      <c r="BC59" s="129"/>
+      <c r="BD59" s="129"/>
+      <c r="BE59" s="129"/>
+      <c r="BF59" s="129"/>
+      <c r="BG59" s="129"/>
+      <c r="BH59" s="80"/>
+      <c r="BI59"/>
+      <c r="BJ59"/>
+      <c r="BK59"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+    </row>
+    <row r="60" spans="1:76">
+      <c r="A60"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="121">
+        <f>M40</f>
+        <v>48</v>
+      </c>
+      <c r="E60" s="121"/>
+      <c r="F60" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G60" s="122"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K60" s="80"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R60" s="131"/>
+      <c r="S60" s="131"/>
+      <c r="T60" s="131"/>
+      <c r="U60" s="131"/>
+      <c r="V60" s="131"/>
+      <c r="W60" s="131"/>
+      <c r="X60" s="131"/>
+      <c r="Y60" s="131"/>
+      <c r="Z60" s="131"/>
+      <c r="AA60" s="131"/>
+      <c r="AB60" s="131"/>
+      <c r="AC60" s="131"/>
+      <c r="AD60" s="131"/>
+      <c r="AE60" s="131"/>
+      <c r="AF60" s="131"/>
+      <c r="AG60" s="131"/>
+      <c r="AH60" s="131"/>
+      <c r="AI60" s="132"/>
+      <c r="AJ60" s="80"/>
+      <c r="AK60" s="129"/>
+      <c r="AL60" s="129"/>
+      <c r="AM60" s="129"/>
+      <c r="AN60" s="129"/>
+      <c r="AO60" s="129"/>
+      <c r="AP60" s="129"/>
+      <c r="AQ60" s="129"/>
+      <c r="AR60" s="129"/>
+      <c r="AS60" s="129"/>
+      <c r="AT60" s="129"/>
+      <c r="AU60" s="129"/>
+      <c r="AV60" s="80"/>
+      <c r="AW60" s="129"/>
+      <c r="AX60" s="129"/>
+      <c r="AY60" s="129"/>
+      <c r="AZ60" s="129"/>
+      <c r="BA60" s="129"/>
+      <c r="BB60" s="129"/>
+      <c r="BC60" s="129"/>
+      <c r="BD60" s="129"/>
+      <c r="BE60" s="129"/>
+      <c r="BF60" s="129"/>
+      <c r="BG60" s="129"/>
+      <c r="BH60" s="80"/>
+      <c r="BI60"/>
+      <c r="BJ60"/>
+      <c r="BK60"/>
+      <c r="BL60"/>
+      <c r="BM60"/>
+      <c r="BN60"/>
+      <c r="BO60"/>
+      <c r="BP60"/>
+      <c r="BQ60"/>
+      <c r="BR60"/>
+      <c r="BS60"/>
+      <c r="BT60"/>
+      <c r="BU60"/>
+      <c r="BV60"/>
+      <c r="BW60"/>
+      <c r="BX60"/>
+    </row>
+    <row r="61" spans="1:76">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="121">
+        <f>O40</f>
+        <v>49</v>
+      </c>
+      <c r="E61" s="121"/>
+      <c r="F61" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G61" s="122"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K61" s="80"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R61" s="131"/>
+      <c r="S61" s="131"/>
+      <c r="T61" s="131"/>
+      <c r="U61" s="131"/>
+      <c r="V61" s="131"/>
+      <c r="W61" s="131"/>
+      <c r="X61" s="131"/>
+      <c r="Y61" s="131"/>
+      <c r="Z61" s="131"/>
+      <c r="AA61" s="131"/>
+      <c r="AB61" s="131"/>
+      <c r="AC61" s="131"/>
+      <c r="AD61" s="131"/>
+      <c r="AE61" s="131"/>
+      <c r="AF61" s="131"/>
+      <c r="AG61" s="131"/>
+      <c r="AH61" s="131"/>
+      <c r="AI61" s="132"/>
+      <c r="AJ61" s="80"/>
+      <c r="AK61" s="129"/>
+      <c r="AL61" s="129"/>
+      <c r="AM61" s="129"/>
+      <c r="AN61" s="129"/>
+      <c r="AO61" s="129"/>
+      <c r="AP61" s="129"/>
+      <c r="AQ61" s="129"/>
+      <c r="AR61" s="129"/>
+      <c r="AS61" s="129"/>
+      <c r="AT61" s="129"/>
+      <c r="AU61" s="129"/>
+      <c r="AV61" s="80"/>
+      <c r="AW61" s="129"/>
+      <c r="AX61" s="129"/>
+      <c r="AY61" s="129"/>
+      <c r="AZ61" s="129"/>
+      <c r="BA61" s="129"/>
+      <c r="BB61" s="129"/>
+      <c r="BC61" s="129"/>
+      <c r="BD61" s="129"/>
+      <c r="BE61" s="129"/>
+      <c r="BF61" s="129"/>
+      <c r="BG61" s="129"/>
+      <c r="BH61" s="80"/>
+      <c r="BI61"/>
+      <c r="BJ61"/>
+      <c r="BK61"/>
+      <c r="BL61"/>
+      <c r="BM61"/>
+      <c r="BN61"/>
+      <c r="BO61"/>
+      <c r="BP61"/>
+      <c r="BQ61"/>
+      <c r="BR61"/>
+      <c r="BS61"/>
+      <c r="BT61"/>
+      <c r="BU61"/>
+      <c r="BV61"/>
+      <c r="BW61"/>
+      <c r="BX61"/>
+    </row>
+    <row r="62" spans="1:76">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G62" s="122"/>
+      <c r="H62" s="129"/>
+      <c r="I62" s="129"/>
+      <c r="J62" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K62" s="80"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R62" s="131"/>
+      <c r="S62" s="131"/>
+      <c r="T62" s="131"/>
+      <c r="U62" s="131"/>
+      <c r="V62" s="131"/>
+      <c r="W62" s="131"/>
+      <c r="X62" s="131"/>
+      <c r="Y62" s="131"/>
+      <c r="Z62" s="131"/>
+      <c r="AA62" s="131"/>
+      <c r="AB62" s="131"/>
+      <c r="AC62" s="131"/>
+      <c r="AD62" s="131"/>
+      <c r="AE62" s="131"/>
+      <c r="AF62" s="131"/>
+      <c r="AG62" s="131"/>
+      <c r="AH62" s="131"/>
+      <c r="AI62" s="132"/>
+      <c r="AJ62" s="80"/>
+      <c r="AK62" s="129"/>
+      <c r="AL62" s="129"/>
+      <c r="AM62" s="129"/>
+      <c r="AN62" s="129"/>
+      <c r="AO62" s="129"/>
+      <c r="AP62" s="129"/>
+      <c r="AQ62" s="129"/>
+      <c r="AR62" s="129"/>
+      <c r="AS62" s="129"/>
+      <c r="AT62" s="129"/>
+      <c r="AU62" s="129"/>
+      <c r="AV62" s="80"/>
+      <c r="AW62" s="129">
+        <f>R40</f>
+        <v>50</v>
+      </c>
+      <c r="AX62" s="129"/>
+      <c r="AY62" s="129"/>
+      <c r="AZ62" s="129"/>
+      <c r="BA62" s="129"/>
+      <c r="BB62" s="129"/>
+      <c r="BC62" s="129"/>
+      <c r="BD62" s="129"/>
+      <c r="BE62" s="129"/>
+      <c r="BF62" s="129"/>
+      <c r="BG62" s="129"/>
+      <c r="BH62" s="80"/>
+      <c r="BI62"/>
+      <c r="BJ62"/>
+      <c r="BK62"/>
+      <c r="BL62"/>
+      <c r="BM62"/>
+      <c r="BN62"/>
+      <c r="BO62"/>
+      <c r="BP62"/>
+      <c r="BQ62"/>
+      <c r="BR62"/>
+      <c r="BS62"/>
+      <c r="BT62"/>
+      <c r="BU62"/>
+      <c r="BV62"/>
+      <c r="BW62"/>
+      <c r="BX62"/>
+    </row>
+    <row r="63" spans="1:76">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="121">
+        <f>T40</f>
+        <v>51</v>
+      </c>
+      <c r="E63" s="121"/>
+      <c r="F63" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G63" s="122"/>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K63" s="80"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R63" s="131"/>
+      <c r="S63" s="131"/>
+      <c r="T63" s="131"/>
+      <c r="U63" s="131"/>
+      <c r="V63" s="131"/>
+      <c r="W63" s="131"/>
+      <c r="X63" s="131"/>
+      <c r="Y63" s="131"/>
+      <c r="Z63" s="131"/>
+      <c r="AA63" s="131"/>
+      <c r="AB63" s="131"/>
+      <c r="AC63" s="131"/>
+      <c r="AD63" s="131"/>
+      <c r="AE63" s="131"/>
+      <c r="AF63" s="131"/>
+      <c r="AG63" s="131"/>
+      <c r="AH63" s="131"/>
+      <c r="AI63" s="132"/>
+      <c r="AJ63" s="80"/>
+      <c r="AK63" s="129"/>
+      <c r="AL63" s="129"/>
+      <c r="AM63" s="129"/>
+      <c r="AN63" s="129"/>
+      <c r="AO63" s="129"/>
+      <c r="AP63" s="129"/>
+      <c r="AQ63" s="129"/>
+      <c r="AR63" s="129"/>
+      <c r="AS63" s="129"/>
+      <c r="AT63" s="129"/>
+      <c r="AU63" s="129"/>
+      <c r="AV63" s="80"/>
+      <c r="AW63" s="129"/>
+      <c r="AX63" s="129"/>
+      <c r="AY63" s="129"/>
+      <c r="AZ63" s="129"/>
+      <c r="BA63" s="129"/>
+      <c r="BB63" s="129"/>
+      <c r="BC63" s="129"/>
+      <c r="BD63" s="129"/>
+      <c r="BE63" s="129">
+        <f>U40</f>
+        <v>52</v>
+      </c>
+      <c r="BF63" s="129"/>
+      <c r="BG63" s="129"/>
+      <c r="BH63" s="80"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
+      <c r="BK63"/>
+      <c r="BL63"/>
+      <c r="BM63"/>
+      <c r="BN63"/>
+      <c r="BO63"/>
+      <c r="BP63"/>
+      <c r="BQ63"/>
+      <c r="BR63"/>
+      <c r="BS63"/>
+      <c r="BT63"/>
+      <c r="BU63"/>
+      <c r="BV63"/>
+      <c r="BW63"/>
+      <c r="BX63"/>
+    </row>
+    <row r="64" spans="1:76" ht="20.399999999999999">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="121">
+        <f>Z40</f>
+        <v>54</v>
+      </c>
+      <c r="E64" s="121"/>
+      <c r="F64" s="122">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G64" s="122"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="K64" s="80"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="130">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="R64" s="131"/>
+      <c r="S64" s="131"/>
+      <c r="T64" s="131"/>
+      <c r="U64" s="131"/>
+      <c r="V64" s="131"/>
+      <c r="W64" s="131"/>
+      <c r="X64" s="131"/>
+      <c r="Y64" s="131"/>
+      <c r="Z64" s="131"/>
+      <c r="AA64" s="131"/>
+      <c r="AB64" s="131"/>
+      <c r="AC64" s="131"/>
+      <c r="AD64" s="131"/>
+      <c r="AE64" s="131"/>
+      <c r="AF64" s="131"/>
+      <c r="AG64" s="131"/>
+      <c r="AH64" s="131"/>
+      <c r="AI64" s="132"/>
+      <c r="AJ64" s="80"/>
+      <c r="AK64" s="143"/>
+      <c r="AL64" s="143"/>
+      <c r="AM64" s="143"/>
+      <c r="AN64" s="143"/>
+      <c r="AO64" s="143"/>
+      <c r="AP64" s="143"/>
+      <c r="AQ64" s="143"/>
+      <c r="AR64" s="143"/>
+      <c r="AS64" s="143"/>
+      <c r="AT64" s="143"/>
+      <c r="AU64" s="129"/>
+      <c r="AV64" s="80"/>
+      <c r="AW64" s="129"/>
+      <c r="AX64" s="129"/>
+      <c r="AY64" s="129"/>
+      <c r="AZ64" s="129"/>
+      <c r="BA64" s="129"/>
+      <c r="BB64" s="129"/>
+      <c r="BC64" s="129"/>
+      <c r="BD64" s="129"/>
+      <c r="BE64" s="129"/>
+      <c r="BF64" s="129"/>
+      <c r="BG64" s="129"/>
+      <c r="BH64" s="80"/>
+      <c r="BI64"/>
+      <c r="BJ64"/>
+      <c r="BK64"/>
+      <c r="BL64"/>
+      <c r="BM64"/>
+      <c r="BN64"/>
+      <c r="BO64"/>
+      <c r="BP64"/>
+      <c r="BQ64"/>
+      <c r="BR64"/>
+      <c r="BS64"/>
+      <c r="BT64"/>
+      <c r="BU64"/>
+      <c r="BV64"/>
+      <c r="BW64"/>
+      <c r="BX64"/>
+    </row>
+    <row r="65" spans="1:76" ht="15.6">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="127">
+        <f>C35</f>
+        <v>31</v>
+      </c>
+      <c r="E65" s="127"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
+      <c r="N65" s="133"/>
+      <c r="O65" s="133"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="133"/>
+      <c r="R65" s="133"/>
+      <c r="S65" s="133"/>
+      <c r="T65" s="133"/>
+      <c r="U65" s="133"/>
+      <c r="V65" s="133"/>
+      <c r="W65" s="133"/>
+      <c r="X65" s="133"/>
+      <c r="Y65" s="133"/>
+      <c r="Z65" s="133"/>
+      <c r="AA65" s="133"/>
+      <c r="AB65" s="133"/>
+      <c r="AC65" s="133"/>
+      <c r="AD65" s="133"/>
+      <c r="AE65" s="133"/>
+      <c r="AF65" s="133"/>
+      <c r="AG65" s="133"/>
+      <c r="AH65" s="133"/>
+      <c r="AI65" s="133"/>
+      <c r="AJ65" s="80"/>
+      <c r="AK65" s="121">
+        <f>AP35</f>
+        <v>41</v>
+      </c>
+      <c r="AL65" s="121"/>
+      <c r="AM65" s="121"/>
+      <c r="AN65" s="121"/>
+      <c r="AO65" s="121"/>
+      <c r="AP65" s="121"/>
+      <c r="AQ65" s="121"/>
+      <c r="AR65" s="121"/>
+      <c r="AS65" s="121"/>
+      <c r="AT65" s="121"/>
+      <c r="AU65" s="133"/>
+      <c r="AV65" s="80"/>
+      <c r="AW65" s="133"/>
+      <c r="AX65" s="133"/>
+      <c r="AY65" s="133"/>
+      <c r="AZ65" s="133"/>
+      <c r="BA65" s="133"/>
+      <c r="BB65" s="133"/>
+      <c r="BC65" s="133"/>
+      <c r="BD65" s="133"/>
+      <c r="BE65" s="133"/>
+      <c r="BF65" s="133"/>
+      <c r="BG65" s="133"/>
+      <c r="BH65" s="80"/>
+      <c r="BI65"/>
+      <c r="BJ65"/>
+      <c r="BK65"/>
+      <c r="BL65"/>
+      <c r="BM65"/>
+      <c r="BN65"/>
+      <c r="BO65"/>
+      <c r="BP65"/>
+      <c r="BQ65"/>
+      <c r="BR65"/>
+      <c r="BS65"/>
+      <c r="BT65"/>
+      <c r="BU65"/>
+      <c r="BV65"/>
+      <c r="BW65"/>
+      <c r="BX65"/>
+    </row>
+    <row r="66" spans="1:76">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="AJ66" s="80"/>
+      <c r="AV66" s="80"/>
+      <c r="BH66" s="80"/>
+      <c r="BI66"/>
+      <c r="BJ66"/>
+      <c r="BK66"/>
+      <c r="BL66"/>
+      <c r="BM66"/>
+      <c r="BN66"/>
+      <c r="BO66"/>
+      <c r="BP66"/>
+      <c r="BQ66"/>
+      <c r="BR66"/>
+      <c r="BS66"/>
+      <c r="BT66"/>
+      <c r="BU66"/>
+      <c r="BV66"/>
+      <c r="BW66"/>
+      <c r="BX66"/>
+    </row>
+    <row r="67" spans="1:76">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="BI67"/>
+      <c r="BJ67"/>
+      <c r="BK67"/>
+      <c r="BL67"/>
+      <c r="BM67"/>
+      <c r="BN67"/>
+      <c r="BO67"/>
+      <c r="BP67"/>
+      <c r="BQ67"/>
+    </row>
+    <row r="68" spans="1:76">
+      <c r="BI68"/>
+      <c r="BJ68"/>
+      <c r="BK68"/>
+      <c r="BL68"/>
+      <c r="BM68"/>
+      <c r="BN68"/>
+      <c r="BO68"/>
+      <c r="BP68"/>
+      <c r="BQ68"/>
+    </row>
+    <row r="69" spans="1:76">
+      <c r="BI69"/>
+      <c r="BJ69"/>
+      <c r="BK69"/>
+      <c r="BL69"/>
+      <c r="BM69"/>
+      <c r="BN69"/>
+      <c r="BO69"/>
+      <c r="BP69"/>
+      <c r="BQ69"/>
+    </row>
+    <row r="70" spans="1:76">
+      <c r="BI70"/>
+      <c r="BJ70"/>
+      <c r="BK70"/>
+      <c r="BL70"/>
+      <c r="BM70"/>
+      <c r="BN70"/>
+      <c r="BO70"/>
+      <c r="BP70"/>
+      <c r="BQ70"/>
+    </row>
+    <row r="71" spans="1:76">
+      <c r="BI71"/>
+      <c r="BJ71"/>
+      <c r="BK71"/>
+      <c r="BL71"/>
+      <c r="BM71"/>
+      <c r="BN71"/>
+      <c r="BO71"/>
+      <c r="BP71"/>
+      <c r="BQ71"/>
+    </row>
+    <row r="72" spans="1:76">
+      <c r="BI72"/>
+      <c r="BJ72"/>
+      <c r="BK72"/>
+      <c r="BL72"/>
+      <c r="BM72"/>
+      <c r="BN72"/>
+      <c r="BO72"/>
+      <c r="BP72"/>
+      <c r="BQ72"/>
+    </row>
+    <row r="73" spans="1:76">
+      <c r="BI73"/>
+      <c r="BJ73"/>
+      <c r="BK73"/>
+      <c r="BL73"/>
+      <c r="BM73"/>
+      <c r="BN73"/>
+      <c r="BO73"/>
+      <c r="BP73"/>
+      <c r="BQ73"/>
+    </row>
+    <row r="74" spans="1:76">
+      <c r="BI74"/>
+      <c r="BJ74"/>
+      <c r="BK74"/>
+      <c r="BL74"/>
+      <c r="BM74"/>
+      <c r="BN74"/>
+      <c r="BO74"/>
+      <c r="BP74"/>
+      <c r="BQ74"/>
+    </row>
+    <row r="75" spans="1:76">
+      <c r="BI75"/>
+      <c r="BJ75"/>
+      <c r="BK75"/>
+      <c r="BL75"/>
+      <c r="BM75"/>
+      <c r="BN75"/>
+      <c r="BO75"/>
+      <c r="BP75"/>
+      <c r="BQ75"/>
+    </row>
+    <row r="76" spans="1:76">
+      <c r="BI76"/>
+      <c r="BJ76"/>
+      <c r="BK76"/>
+      <c r="BL76"/>
+      <c r="BM76"/>
+      <c r="BN76"/>
+      <c r="BO76"/>
+      <c r="BP76"/>
+      <c r="BQ76"/>
+    </row>
+    <row r="77" spans="1:76">
+      <c r="BI77"/>
+      <c r="BJ77"/>
+      <c r="BK77"/>
+      <c r="BL77"/>
+      <c r="BM77"/>
+      <c r="BN77"/>
+      <c r="BO77"/>
+      <c r="BP77"/>
+      <c r="BQ77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="Q60:AI60"/>
+    <mergeCell ref="Q61:AI61"/>
+    <mergeCell ref="Q62:AI62"/>
+    <mergeCell ref="Q63:AI63"/>
+    <mergeCell ref="Q64:AI64"/>
+    <mergeCell ref="AK53:AT53"/>
+    <mergeCell ref="AK54:AT54"/>
+    <mergeCell ref="AK65:AT65"/>
+    <mergeCell ref="K46:K65"/>
+    <mergeCell ref="P46:P65"/>
+    <mergeCell ref="AJ46:AJ66"/>
+    <mergeCell ref="Q55:AI55"/>
+    <mergeCell ref="Q56:AI56"/>
+    <mergeCell ref="Q57:AI57"/>
+    <mergeCell ref="Q58:AI58"/>
+    <mergeCell ref="AK47:AT47"/>
+    <mergeCell ref="AK48:AT48"/>
+    <mergeCell ref="AK49:AT49"/>
+    <mergeCell ref="AK50:AT50"/>
+    <mergeCell ref="AK51:AT51"/>
+    <mergeCell ref="AK52:AT52"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="Q46:AI46"/>
+    <mergeCell ref="AK46:AT46"/>
+    <mergeCell ref="Q47:AI47"/>
+    <mergeCell ref="Q48:AI48"/>
+    <mergeCell ref="Q50:AI50"/>
+    <mergeCell ref="Q51:AI51"/>
+    <mergeCell ref="Q52:AI52"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="AV46:AV66"/>
+    <mergeCell ref="Q59:AI59"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="Q53:AI53"/>
+    <mergeCell ref="Q54:AI54"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="BH46:BH66"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>